--- a/6月/途礼商城/开发环境/基础测试/商城首页.xlsx
+++ b/6月/途礼商城/开发环境/基础测试/商城首页.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="131">
   <si>
     <t>撰写人</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>关注途礼公众号页面</t>
+  </si>
+  <si>
+    <t>正确显示"用户名，退出，我的订单，购物车，FAQ"</t>
   </si>
   <si>
     <t>点击账户名</t>
@@ -415,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -460,13 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -476,7 +472,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,31 +510,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,9 +555,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,41 +585,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -610,25 +613,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,13 +679,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,37 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,31 +739,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,55 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,21 +933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -954,13 +942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,111 +987,122 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,56 +1111,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,7 +1170,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,13 +1566,13 @@
   <sheetPr/>
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="44.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="37.375" customWidth="1"/>
@@ -1589,34 +1591,34 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="27"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="26"/>
     </row>
     <row r="2" customFormat="1" ht="40" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1641,1149 +1643,1149 @@
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" ht="31.2" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" ht="26.4" customHeight="1" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="26.4" customHeight="1" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" ht="26.4" customHeight="1" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="22"/>
+      <c r="G7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" ht="19.2" customHeight="1" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="21"/>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="22"/>
+      <c r="G9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" ht="39.6" customHeight="1" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="21"/>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" ht="21.6" customHeight="1" spans="1:10">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="22"/>
+      <c r="G11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" ht="25.8" customHeight="1" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="21" t="s">
+      <c r="G12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="28.2" customHeight="1" spans="1:10">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="22"/>
+      <c r="G13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:10">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
+      <c r="G14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" ht="24.6" customHeight="1" spans="1:10">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" ht="27.6" customHeight="1" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="21"/>
+      <c r="G16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" ht="25.2" customHeight="1" spans="1:10">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="22"/>
+      <c r="G17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="21"/>
+      <c r="G18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" ht="24.6" customHeight="1" spans="1:10">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="22"/>
+      <c r="G19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" ht="18.6" customHeight="1" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" ht="24.6" customHeight="1" spans="1:10">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" s="23" customFormat="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="G21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" s="22" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="21"/>
+      <c r="F22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" ht="36" customHeight="1" spans="1:10">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="22"/>
+      <c r="F23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" ht="24.6" customHeight="1" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="F24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:10">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="22"/>
+      <c r="F25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" ht="39" customHeight="1" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="21"/>
+      <c r="F26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" ht="33" customHeight="1" spans="1:10">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="22"/>
+      <c r="F27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" ht="69" customHeight="1" spans="1:10">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" ht="42" customHeight="1" spans="1:10">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="F29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" ht="48" customHeight="1" spans="1:10">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" ht="65" customHeight="1" spans="1:10">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="22"/>
+      <c r="F31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" ht="55" customHeight="1" spans="1:10">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="21"/>
+      <c r="F32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" ht="49" customHeight="1" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="22"/>
+      <c r="F33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" ht="48" customHeight="1" spans="1:10">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="21"/>
+      <c r="F34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:10">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="22"/>
+      <c r="F35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" ht="36" customHeight="1" spans="1:10">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="21"/>
+      <c r="F36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" ht="43" customHeight="1" spans="1:10">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="22"/>
+      <c r="F37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" ht="42" customHeight="1" spans="1:10">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="21"/>
+      <c r="F38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" ht="36" customHeight="1" spans="1:10">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="15" t="s">
+      <c r="F39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" ht="54" customHeight="1" spans="1:10">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="21"/>
+      <c r="F40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" ht="40" customHeight="1" spans="1:10">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="22"/>
+      <c r="F41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" ht="32" customHeight="1" spans="1:10">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="21"/>
+      <c r="F42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" ht="39" customHeight="1" spans="1:10">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="22"/>
+      <c r="F43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" ht="42" customHeight="1" spans="1:10">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="21"/>
+      <c r="F44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" ht="43" customHeight="1" spans="1:10">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="22"/>
+      <c r="F45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:10">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="21"/>
+      <c r="F46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" ht="32" customHeight="1" spans="1:10">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="22"/>
+      <c r="F47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" ht="42" customHeight="1" spans="1:10">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="21"/>
+      <c r="F48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" ht="36" customHeight="1" spans="1:10">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="22"/>
+      <c r="F49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:10">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="21"/>
+      <c r="F50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" ht="35" customHeight="1" spans="1:10">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="15" t="s">
+      <c r="F51" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" ht="31" customHeight="1" spans="1:10">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="21"/>
+      <c r="F52" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="26"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2804,8 +2806,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2836,7 +2838,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="17"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" ht="20.75" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -2861,1161 +2863,1161 @@
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" ht="20.75" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="22"/>
+      <c r="G7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="21"/>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="22"/>
+      <c r="G9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="21"/>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="22"/>
+      <c r="G11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="21" t="s">
+      <c r="G12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="22"/>
+      <c r="G13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
+      <c r="G14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="22"/>
+      <c r="G15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="21"/>
+      <c r="G16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="22"/>
+      <c r="G17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="21"/>
+      <c r="G18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="22"/>
+      <c r="G19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="22"/>
+      <c r="G21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="21"/>
+      <c r="E22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="22"/>
+      <c r="E23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="21"/>
+      <c r="E24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="22" t="s">
+      <c r="E25" s="14" t="s">
         <v>129</v>
       </c>
+      <c r="F25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="21" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="21"/>
+      <c r="F26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="22"/>
+      <c r="F27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="F29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="22"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="F30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="22"/>
+      <c r="F31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="21"/>
+      <c r="F32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="22"/>
+      <c r="F33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="21"/>
+      <c r="F34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="22"/>
+      <c r="F35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="21"/>
+      <c r="F36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="22"/>
+      <c r="F37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="21"/>
+      <c r="F38" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="22"/>
+      <c r="F39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="F40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="21"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F41" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="22"/>
+      <c r="F41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="21"/>
+      <c r="F42" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="22"/>
+      <c r="F43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="21"/>
+      <c r="F44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="22"/>
+      <c r="F45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="21"/>
+      <c r="F46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="22"/>
+      <c r="F47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="21"/>
+      <c r="F48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="15"/>
-      <c r="J49" s="22"/>
+      <c r="F49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="14"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="21"/>
+      <c r="F50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="22"/>
+      <c r="F51" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="13" t="s">
+      <c r="F52" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J52" s="21"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" ht="20.75" customHeight="1" spans="1:10">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="22"/>
+      <c r="F53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
